--- a/interests/Interests.xlsx
+++ b/interests/Interests.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Google Drive\Master's\Interests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark.rucker\My Projects\PTL\mr2an\interests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="733" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="733" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Individuals" sheetId="4" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="Organizations" sheetId="6" r:id="rId3"/>
     <sheet name="Journals" sheetId="5" r:id="rId4"/>
     <sheet name="Research" sheetId="2" r:id="rId5"/>
-    <sheet name="Programs" sheetId="3" r:id="rId6"/>
-    <sheet name="Resources" sheetId="7" r:id="rId7"/>
+    <sheet name="Resources" sheetId="7" r:id="rId6"/>
+    <sheet name="Questions" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>Id</t>
   </si>
@@ -189,13 +189,46 @@
   </si>
   <si>
     <t>Epidemic Intelligence Service</t>
+  </si>
+  <si>
+    <t>Mathematical Sociology</t>
+  </si>
+  <si>
+    <t>Computational Sociology</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Are there fundamental formulas that govern social interactions?</t>
+  </si>
+  <si>
+    <t>Did consciousness evolve to priorotize information processing?</t>
+  </si>
+  <si>
+    <t>Can we create mathematical models of social systems?</t>
+  </si>
+  <si>
+    <t>Journal of Mathematical Sociology</t>
+  </si>
+  <si>
+    <t>Social Networks</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>Can we accurately model the impact of an AI application on social networks?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +243,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF252525"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -233,9 +272,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -786,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,35 +940,71 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -937,19 +1013,21 @@
     <hyperlink ref="B4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -965,36 +1043,39 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,4 +1129,55 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="75.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="Did consciousness evolve to priorotize information processing"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/interests/Interests.xlsx
+++ b/interests/Interests.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark.rucker\My Projects\PTL\mr2an\interests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark.rucker\My Projects\mr2an\interests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="733" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="733"/>
   </bookViews>
   <sheets>
     <sheet name="Individuals" sheetId="4" r:id="rId1"/>
     <sheet name="Universities" sheetId="1" r:id="rId2"/>
     <sheet name="Organizations" sheetId="6" r:id="rId3"/>
-    <sheet name="Journals" sheetId="5" r:id="rId4"/>
-    <sheet name="Research" sheetId="2" r:id="rId5"/>
-    <sheet name="Resources" sheetId="7" r:id="rId6"/>
-    <sheet name="Questions" sheetId="9" r:id="rId7"/>
+    <sheet name="Companies" sheetId="11" r:id="rId4"/>
+    <sheet name="Journals" sheetId="5" r:id="rId5"/>
+    <sheet name="Research" sheetId="2" r:id="rId6"/>
+    <sheet name="Resources" sheetId="7" r:id="rId7"/>
+    <sheet name="Questions" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>Id</t>
   </si>
@@ -222,6 +223,24 @@
   </si>
   <si>
     <t>Can we accurately model the impact of an AI application on social networks?</t>
+  </si>
+  <si>
+    <t>Knack</t>
+  </si>
+  <si>
+    <t>Joyable</t>
+  </si>
+  <si>
+    <t>Introduction to Statistical Learning</t>
+  </si>
+  <si>
+    <t>Textbook</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning: An Introduction</t>
+  </si>
+  <si>
+    <t>Richard S. Sutton</t>
   </si>
 </sst>
 </file>
@@ -557,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,6 +705,17 @@
         <v>50</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
@@ -693,9 +723,10 @@
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
     <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -826,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B12" sqref="A12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,6 +971,49 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1017,7 +1091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1070,12 +1144,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,19 +1197,43 @@
         <v>32</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3" display="Reinforcement Learning"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/interests/Interests.xlsx
+++ b/interests/Interests.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="733"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="733" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Individuals" sheetId="4" r:id="rId1"/>
-    <sheet name="Universities" sheetId="1" r:id="rId2"/>
+    <sheet name="Labs" sheetId="13" r:id="rId2"/>
     <sheet name="Organizations" sheetId="6" r:id="rId3"/>
-    <sheet name="Companies" sheetId="11" r:id="rId4"/>
-    <sheet name="Journals" sheetId="5" r:id="rId5"/>
-    <sheet name="Research" sheetId="2" r:id="rId6"/>
-    <sheet name="Resources" sheetId="7" r:id="rId7"/>
-    <sheet name="Questions" sheetId="9" r:id="rId8"/>
+    <sheet name="Journals" sheetId="5" r:id="rId4"/>
+    <sheet name="Areas" sheetId="2" r:id="rId5"/>
+    <sheet name="Writings" sheetId="7" r:id="rId6"/>
+    <sheet name="Questions" sheetId="9" r:id="rId7"/>
+    <sheet name="Things I need to study" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="100">
   <si>
     <t>Id</t>
   </si>
@@ -39,48 +39,15 @@
     <t>Name</t>
   </si>
   <si>
-    <t>North Carolina State University</t>
-  </si>
-  <si>
-    <t>University Of Texas - Austin</t>
-  </si>
-  <si>
-    <t>Pennsylvania State University</t>
-  </si>
-  <si>
     <t>CBT4CBT</t>
   </si>
   <si>
     <t>Kathleen M Carrol</t>
   </si>
   <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>PhD</t>
-  </si>
-  <si>
-    <t>Yale University</t>
-  </si>
-  <si>
-    <t>Researcher</t>
-  </si>
-  <si>
-    <t>US News Computer Science Rank</t>
-  </si>
-  <si>
-    <t>Researchers</t>
-  </si>
-  <si>
     <t>Society for the Study of Social Problems</t>
   </si>
   <si>
-    <t>NYT Fixes</t>
-  </si>
-  <si>
-    <t>BRAC</t>
-  </si>
-  <si>
     <t>David Bornstein</t>
   </si>
   <si>
@@ -93,9 +60,6 @@
     <t>Psychology</t>
   </si>
   <si>
-    <t>Journalism</t>
-  </si>
-  <si>
     <t>Stanford Social Innovation Review</t>
   </si>
   <si>
@@ -105,15 +69,9 @@
     <t>Agenda For Social Justice</t>
   </si>
   <si>
-    <t>ICT4D</t>
-  </si>
-  <si>
     <t>John D. Sterman</t>
   </si>
   <si>
-    <t>Massachusetts Institute Of Technology</t>
-  </si>
-  <si>
     <t>A Skeptic's Guide to Computer Models</t>
   </si>
   <si>
@@ -129,9 +87,6 @@
     <t>A Contextual History of Mathematics</t>
   </si>
   <si>
-    <t>TextBook</t>
-  </si>
-  <si>
     <t>Data Science for Social Good</t>
   </si>
   <si>
@@ -147,39 +102,12 @@
     <t>Scott E. Page</t>
   </si>
   <si>
-    <t>University</t>
-  </si>
-  <si>
     <t>Organization</t>
   </si>
   <si>
     <t>Susan M. Sanchez</t>
   </si>
   <si>
-    <t>Naval Postgraduate School</t>
-  </si>
-  <si>
-    <t>Acronym</t>
-  </si>
-  <si>
-    <t>UT</t>
-  </si>
-  <si>
-    <t>NCSU</t>
-  </si>
-  <si>
-    <t>MIT</t>
-  </si>
-  <si>
-    <t>Yale</t>
-  </si>
-  <si>
-    <t>Penn State</t>
-  </si>
-  <si>
-    <t>NPS</t>
-  </si>
-  <si>
     <t>Focus</t>
   </si>
   <si>
@@ -216,9 +144,6 @@
     <t>Social Networks</t>
   </si>
   <si>
-    <t>Machine Learning</t>
-  </si>
-  <si>
     <t>l</t>
   </si>
   <si>
@@ -234,20 +159,231 @@
     <t>Introduction to Statistical Learning</t>
   </si>
   <si>
-    <t>Textbook</t>
-  </si>
-  <si>
     <t>Reinforcement Learning: An Introduction</t>
   </si>
   <si>
     <t>Richard S. Sutton</t>
+  </si>
+  <si>
+    <t>Niklas Luhmann</t>
+  </si>
+  <si>
+    <t>Social Systems</t>
+  </si>
+  <si>
+    <t>Talcot Parsons</t>
+  </si>
+  <si>
+    <t>Famous in Germany and Eastern Europe. Not super well known in America. Attempted to create a grand unified of social systems built on the idea that communication is the key to social systems.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Author of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How To Change The World.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Big fan of Ashoka and Bill Drayton.  Writes about successful social interventions.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nicholoas Kristoff</t>
+  </si>
+  <si>
+    <t>Social Fixes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Author of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Half The Sky.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Writer for NYT. Writes about social fixes and women's equality. Big fan of market driven social solutions</t>
+    </r>
+  </si>
+  <si>
+    <t>Famous American Social Systems Theorist. Worked during the 1950's to create a grand unified social theory built on volunteer actions. Widely considered a failure today.</t>
+  </si>
+  <si>
+    <t>Academic</t>
+  </si>
+  <si>
+    <t>Information and Communication Technologies For Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bangladesh Rehabilitation Assistance Committee</t>
+  </si>
+  <si>
+    <t>The New York Times: Fixes</t>
+  </si>
+  <si>
+    <t>A company that tries to measure people's skill sets</t>
+  </si>
+  <si>
+    <t>A company that attempts to provide CBT through an app to alleviate social anxiety</t>
+  </si>
+  <si>
+    <t>A company trying to provide CBT therapy through an online computer applications</t>
+  </si>
+  <si>
+    <t>Policy and Research organization that advocates for what better urban development</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>A department at the university of Michigan</t>
+  </si>
+  <si>
+    <t>Computational Social Philosphy Lab</t>
+  </si>
+  <si>
+    <t>Graph Theory</t>
+  </si>
+  <si>
+    <t>Frank Harary</t>
+  </si>
+  <si>
+    <t>The definitive book on graph theory. Created the vocabulary used to discuss the topic.</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Network Theory</t>
+  </si>
+  <si>
+    <t>Complex Network Theory</t>
+  </si>
+  <si>
+    <t>Network Topology</t>
+  </si>
+  <si>
+    <t>Markov Decision Process</t>
+  </si>
+  <si>
+    <t>Do online social networks accurately model real world social networks? E.g., I may interact with somebody in real life that I'm not willing to "friend" online.</t>
+  </si>
+  <si>
+    <t>In order to change the behavior of an agent is it best to modify it's  model, policy or objectives?</t>
+  </si>
+  <si>
+    <t>How do we reinforce information that people are unable to directly learn through experiences? E.g., the effects of human behavior on the climate or the effectiveness of supplements to treat health issues</t>
+  </si>
+  <si>
+    <t>What is the big organizing question I am interested in?</t>
+  </si>
+  <si>
+    <t>Social Informatics</t>
+  </si>
+  <si>
+    <t>Agent-Based Social Simulation</t>
+  </si>
+  <si>
+    <t>Complex Systems</t>
+  </si>
+  <si>
+    <t>Systems Science Journals</t>
+  </si>
+  <si>
+    <t>Journal of Artificial Societies and Social Simulations</t>
+  </si>
+  <si>
+    <t>Experience Sampling</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Like Sensus</t>
+  </si>
+  <si>
+    <t>Here's more</t>
+  </si>
+  <si>
+    <t>Phillip Rogaway</t>
+  </si>
+  <si>
+    <t>NYT</t>
+  </si>
+  <si>
+    <t>University of California, Davis</t>
+  </si>
+  <si>
+    <t>Cryptography</t>
+  </si>
+  <si>
+    <t>Writes and speaks about the ethical and political responsibilities of Computer Science researches to consider potential applications of their work.</t>
+  </si>
+  <si>
+    <t>Ethan Zuckerman</t>
+  </si>
+  <si>
+    <t>MIT Media Lab, Geekcorps, Wikimedia</t>
+  </si>
+  <si>
+    <t>Developer/Activist</t>
+  </si>
+  <si>
+    <t>Media/Politics</t>
+  </si>
+  <si>
+    <t>Writes and speaks about social activism and ethically using technology to solve social problems</t>
+  </si>
+  <si>
+    <t>Geekcorps</t>
+  </si>
+  <si>
+    <t>Installs technology infrastructure in developing nations to address social issues</t>
+  </si>
+  <si>
+    <t>Social Phenomena: From Data Analysis to Models (Computational Social Sciences)</t>
+  </si>
+  <si>
+    <t>Gonçalves, Bruno and Perra, Nicola (eds.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +404,14 @@
       <color rgb="FF252525"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -576,19 +720,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="78" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -599,255 +743,226 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
+      <c r="E3" t="s">
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B3" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" display="US News Rank"/>
-    <hyperlink ref="D2" r:id="rId2" display="http://grad-schools.usnews.rankingsandreviews.com/best-graduate-schools/top-science-schools/the-university-of-texas-at-austin-228778"/>
-    <hyperlink ref="D3" r:id="rId3" display="http://grad-schools.usnews.rankingsandreviews.com/best-graduate-schools/top-science-schools/north-carolina-state-university-raleigh-199193"/>
-    <hyperlink ref="D4" r:id="rId4" display="http://grad-schools.usnews.rankingsandreviews.com/best-graduate-schools/top-science-schools/pennsylvania-state-university-main-campus-214777"/>
-    <hyperlink ref="B4" r:id="rId5"/>
-    <hyperlink ref="B3" r:id="rId6"/>
-    <hyperlink ref="B2" r:id="rId7"/>
-    <hyperlink ref="D5" r:id="rId8" display="http://grad-schools.usnews.rankingsandreviews.com/best-graduate-schools/top-science-schools/yale-university-130794"/>
-    <hyperlink ref="B5" r:id="rId9"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -855,115 +970,174 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="A12:B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId2" display="NYT Fixes"/>
+    <hyperlink ref="B4" r:id="rId3" display="BRAC"/>
+    <hyperlink ref="B5" r:id="rId4" display="ICT4D"/>
     <hyperlink ref="B7" r:id="rId5"/>
     <hyperlink ref="B8" r:id="rId6"/>
     <hyperlink ref="B6" r:id="rId7"/>
     <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="B13" r:id="rId10"/>
+    <hyperlink ref="B14" r:id="rId11"/>
+    <hyperlink ref="B10" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -971,13 +1145,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="47.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -991,8 +1168,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>64</v>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1000,145 +1177,267 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="D10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>61</v>
+      <c r="B7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId3" display="Reinforcement Learning"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1146,84 +1445,70 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="187.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3" display="Reinforcement Learning"/>
+    <hyperlink ref="B3" r:id="rId1" display="Did consciousness evolve to priorotize information processing"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1231,50 +1516,39 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="Did consciousness evolve to priorotize information processing"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2" display="Markov Decision Processes"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/interests/Interests.xlsx
+++ b/interests/Interests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="733" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="733" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Individuals" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
   <si>
     <t>Id</t>
   </si>
@@ -378,6 +378,33 @@
   <si>
     <t>Gonçalves, Bruno and Perra, Nicola (eds.)</t>
   </si>
+  <si>
+    <t>B Corporations</t>
+  </si>
+  <si>
+    <t>Comercial business seeking a triple bottom line</t>
+  </si>
+  <si>
+    <t>Ashoka</t>
+  </si>
+  <si>
+    <t>The leader in social entrepreneurship</t>
+  </si>
+  <si>
+    <t>One of the world's most succesfull development NGO's</t>
+  </si>
+  <si>
+    <t>Lots of interesting articles on people addressing social problems</t>
+  </si>
+  <si>
+    <t>Created by Eric Schmidt, the founder of Google</t>
+  </si>
+  <si>
+    <t>Concrete Mathematics</t>
+  </si>
+  <si>
+    <t>Portmanteau of Continuous and Discrete. Written by Knuth.</t>
+  </si>
 </sst>
 </file>
 
@@ -400,15 +427,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF252525"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF252525"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -438,7 +466,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -970,10 +998,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,6 +1036,9 @@
       <c r="B3" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1016,6 +1047,9 @@
       <c r="B4" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1032,6 +1066,9 @@
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1121,6 +1158,28 @@
       </c>
       <c r="C15" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1138,6 +1197,8 @@
     <hyperlink ref="B14" r:id="rId11"/>
     <hyperlink ref="B10" r:id="rId12"/>
     <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1328,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,6 +1490,17 @@
       </c>
       <c r="D7" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1447,7 +1519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>

--- a/interests/Interests.xlsx
+++ b/interests/Interests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="733" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="733" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Individuals" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="111">
   <si>
     <t>Id</t>
   </si>
@@ -404,6 +404,12 @@
   </si>
   <si>
     <t>Portmanteau of Continuous and Discrete. Written by Knuth.</t>
+  </si>
+  <si>
+    <t>ideas42</t>
+  </si>
+  <si>
+    <t>Regulation Room</t>
   </si>
 </sst>
 </file>
@@ -998,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,6 +1186,22 @@
       </c>
       <c r="C17" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1199,6 +1221,8 @@
     <hyperlink ref="B15" r:id="rId13"/>
     <hyperlink ref="B16" r:id="rId14"/>
     <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="B18" r:id="rId16"/>
+    <hyperlink ref="B19" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1519,7 +1543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
